--- a/spreadsheets/decision_treeV2.xlsx
+++ b/spreadsheets/decision_treeV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Calc" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="336">
   <si>
     <t>Exertion_at_1</t>
   </si>
@@ -959,9 +959,6 @@
     <t>(pre-score)</t>
   </si>
   <si>
-    <t>User_fitness_level</t>
-  </si>
-  <si>
     <t>Exertion</t>
   </si>
   <si>
@@ -983,6 +980,36 @@
     <t>weighted minutes</t>
   </si>
   <si>
+    <t>Org_pa</t>
+  </si>
+  <si>
+    <t>fitness_level_raw</t>
+  </si>
+  <si>
+    <t>User_fitness_level_adj</t>
+  </si>
+  <si>
+    <t>v_level</t>
+  </si>
+  <si>
+    <t>v_level_mult</t>
+  </si>
+  <si>
+    <t>technicality_at_1</t>
+  </si>
+  <si>
+    <t>technicality_at_2</t>
+  </si>
+  <si>
+    <t>technicality_at_3</t>
+  </si>
+  <si>
+    <t>technicality_at_4</t>
+  </si>
+  <si>
+    <t>technicality_at_5</t>
+  </si>
+  <si>
     <t>strength_at_1</t>
   </si>
   <si>
@@ -998,19 +1025,19 @@
     <t>strength_at_5</t>
   </si>
   <si>
-    <t>technicality_at_1</t>
-  </si>
-  <si>
-    <t>technicality_at_2</t>
-  </si>
-  <si>
-    <t>technicality_at_3</t>
-  </si>
-  <si>
-    <t>technicality_at_4</t>
-  </si>
-  <si>
-    <t>technicality_at_5</t>
+    <t>Flexibility_at_1</t>
+  </si>
+  <si>
+    <t>Flexibility_at_2</t>
+  </si>
+  <si>
+    <t>Flexibility_at_3</t>
+  </si>
+  <si>
+    <t>Flexibility_at_4</t>
+  </si>
+  <si>
+    <t>Flexibility_at_5</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,6 +1146,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,7 +1200,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1259,8 +1298,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1338,8 +1395,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1431,6 +1500,24 @@
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1782,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1808,16 +1895,16 @@
         <v>ExerciseUID</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G1" t="s">
         <v>288</v>
       </c>
       <c r="H1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -1832,7 +1919,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1841,7 +1928,7 @@
       </c>
       <c r="B2">
         <f>E2+A2</f>
-        <v>90.001000000000005</v>
+        <v>150.001</v>
       </c>
       <c r="C2" s="24" t="str">
         <f>Exercises!A2</f>
@@ -1853,52 +1940,52 @@
       </c>
       <c r="E2" s="23">
         <f t="shared" ref="E2:E33" si="0">F2+I2+J2+K2+L2+M2</f>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2">
-        <f>VLOOKUP(G2,Users!A2:B18,2,FALSE)</f>
+        <f>VLOOKUP(G2,Users!A2:D18,4,FALSE)</f>
         <v>3</v>
       </c>
       <c r="I2">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C2+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C2+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J2">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D2+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D2+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K2">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E2+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E2+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L2">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F2+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F2+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M2">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G2+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G2+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="O2">
         <f>LARGE(B:B,1)</f>
-        <v>150.06299999999999</v>
+        <v>185.04900000000001</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="20" t="str">
         <f t="shared" ref="Q2:Q11" si="1">VLOOKUP(O2,B$2:C$101,2,FALSE)</f>
-        <v>Balance Pose Meditation</v>
+        <v>Half Moon</v>
       </c>
       <c r="R2">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1907,7 +1994,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="2">E3+A3</f>
-        <v>88.001999999999995</v>
+        <v>158.00200000000001</v>
       </c>
       <c r="C3" s="24" t="str">
         <f>Exercises!A3</f>
@@ -1919,99 +2006,99 @@
       </c>
       <c r="E3" s="23">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C3+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C3+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J3">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D3+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D3+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K3">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E3+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E3+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L3">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F3+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F3+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M3">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G3+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G3+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="O3">
         <f>LARGE(B:B,2)</f>
-        <v>150.05600000000001</v>
+        <v>180.05199999999999</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>Balance Pose Open Breath</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
+        <v>Balance Back Twist</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="32" customFormat="1">
+      <c r="A4" s="32">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="32">
         <f t="shared" si="2"/>
-        <v>118.003</v>
-      </c>
-      <c r="C4" s="24" t="str">
+        <v>160.00299999999999</v>
+      </c>
+      <c r="C4" s="33" t="str">
         <f>Exercises!A4</f>
         <v>Neck Role</v>
       </c>
-      <c r="D4" s="24" t="str">
+      <c r="D4" s="33" t="str">
         <f>Exercises!B4</f>
         <v>M0002</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="32">
         <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>315</v>
-      </c>
-      <c r="I4">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C4+1,FALSE)</f>
+        <v>160</v>
+      </c>
+      <c r="F4" s="32">
+        <v>100</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="I4" s="32">
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C4+1,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="J4">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D4+1,FALSE)</f>
+      <c r="J4" s="32">
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D4+1,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K4" s="32">
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E4+1,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="K4">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E4+1,FALSE)</f>
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F4+1,FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="M4">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G4+1,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="O4">
+      <c r="L4" s="32">
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F4+1,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="32">
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G4+1,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="O4" s="32">
         <f>LARGE(B:B,3)</f>
-        <v>140.06399999999999</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="20" t="str">
+        <v>180.018</v>
+      </c>
+      <c r="P4" s="32">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>Balance Pose Row</v>
+        <v>Standing Quad Stretch</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2020,7 +2107,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="2"/>
-        <v>120.004</v>
+        <v>140.00399999999999</v>
       </c>
       <c r="C5" s="24" t="str">
         <f>Exercises!A5</f>
@@ -2032,44 +2119,44 @@
       </c>
       <c r="E5" s="23">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C5+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C5+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J5">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D5+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D5+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K5">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E5+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E5+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L5">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F5+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F5+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="M5">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G5+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G5+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="O5">
         <f>LARGE(B:B,4)</f>
-        <v>140.03700000000001</v>
+        <v>175.07400000000001</v>
       </c>
       <c r="P5">
         <v>4</v>
       </c>
       <c r="Q5" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>Full and Empty</v>
+        <v>Hamstretch Flow</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2078,7 +2165,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="2"/>
-        <v>100.005</v>
+        <v>140.005</v>
       </c>
       <c r="C6" s="24" t="str">
         <f>Exercises!A6</f>
@@ -2090,41 +2177,41 @@
       </c>
       <c r="E6" s="23">
         <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="F6">
         <v>100</v>
       </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
       <c r="I6">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C6+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C6+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J6">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D6+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D6+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K6">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E6+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E6+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L6">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F6+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F6+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M6">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G6+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G6+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="O6">
         <f>LARGE(B:B,5)</f>
-        <v>140.00899999999999</v>
+        <v>175.05099999999999</v>
       </c>
       <c r="P6">
         <v>5</v>
       </c>
       <c r="Q6" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>Balance Pose</v>
+        <v>Heal Raises</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2133,7 +2220,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="2"/>
-        <v>60.006</v>
+        <v>135.006</v>
       </c>
       <c r="C7" s="24" t="str">
         <f>Exercises!A7</f>
@@ -2145,41 +2232,41 @@
       </c>
       <c r="E7" s="23">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I7">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C7+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C7+1,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="J7">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D7+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D7+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K7">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E7+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E7+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L7">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F7+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F7+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M7">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G7+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G7+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="O7">
         <f>LARGE(B:B,6)</f>
-        <v>130.05000000000001</v>
+        <v>175.023</v>
       </c>
       <c r="P7">
         <v>6</v>
       </c>
       <c r="Q7" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>Balance Shift</v>
+        <v>Leg-cross hamstring stretch</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2188,7 +2275,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="2"/>
-        <v>95.007000000000005</v>
+        <v>160.00700000000001</v>
       </c>
       <c r="C8" s="24" t="str">
         <f>Exercises!A8</f>
@@ -2200,41 +2287,41 @@
       </c>
       <c r="E8" s="23">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C8+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C8+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J8">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D8+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D8+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K8">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E8+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E8+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L8">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F8+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F8+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M8">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G8+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G8+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="O8">
         <f>LARGE(B:B,7)</f>
-        <v>130.04499999999999</v>
+        <v>170.07599999999999</v>
       </c>
       <c r="P8">
         <v>7</v>
       </c>
       <c r="Q8" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>Circling Hands</v>
+        <v>Tow Raises</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2243,7 +2330,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="2"/>
-        <v>105.008</v>
+        <v>145.00800000000001</v>
       </c>
       <c r="C9" s="24" t="str">
         <f>Exercises!A9</f>
@@ -2255,41 +2342,41 @@
       </c>
       <c r="E9" s="23">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="F9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I9">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C9+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C9+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J9">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D9+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D9+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K9">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E9+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E9+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L9">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F9+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F9+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M9">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G9+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G9+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="O9">
         <f>LARGE(B:B,8)</f>
-        <v>125.07599999999999</v>
+        <v>170.02199999999999</v>
       </c>
       <c r="P9">
         <v>8</v>
       </c>
       <c r="Q9" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>Tow Raises</v>
+        <v>Basic hamstring stretch</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2298,7 +2385,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="2"/>
-        <v>140.00899999999999</v>
+        <v>150.00899999999999</v>
       </c>
       <c r="C10" s="24" t="str">
         <f>Exercises!A10</f>
@@ -2310,34 +2397,34 @@
       </c>
       <c r="E10" s="23">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I10">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C10+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C10+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J10">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D10+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D10+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="K10">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E10+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E10+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L10">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F10+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F10+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M10">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G10+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G10+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="O10">
         <f>LARGE(B:B,9)</f>
-        <v>125.06100000000001</v>
+        <v>165.06100000000001</v>
       </c>
       <c r="P10">
         <v>9</v>
@@ -2353,7 +2440,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="2"/>
-        <v>110.01</v>
+        <v>145.01</v>
       </c>
       <c r="C11" s="24" t="str">
         <f>Exercises!A11</f>
@@ -2365,41 +2452,41 @@
       </c>
       <c r="E11" s="23">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I11">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C11+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C11+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J11">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D11+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D11+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K11">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E11+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E11+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L11">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F11+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F11+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M11">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G11+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G11+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="O11">
         <f>LARGE(B:B,10)</f>
-        <v>125.014</v>
+        <v>165.02</v>
       </c>
       <c r="P11">
         <v>10</v>
       </c>
       <c r="Q11" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>One-leg stand</v>
+        <v>Behind back shoulder stretch</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2408,7 +2495,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="2"/>
-        <v>85.010999999999996</v>
+        <v>125.011</v>
       </c>
       <c r="C12" s="24" t="str">
         <f>Exercises!A12</f>
@@ -2420,30 +2507,30 @@
       </c>
       <c r="E12" s="23">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I12">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C12+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C12+1,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="J12">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D12+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D12+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K12">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E12+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E12+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L12">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F12+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F12+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M12">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G12+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G12+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2452,7 +2539,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="2"/>
-        <v>120.012</v>
+        <v>140.012</v>
       </c>
       <c r="C13" s="24" t="str">
         <f>Exercises!A13</f>
@@ -2464,29 +2551,29 @@
       </c>
       <c r="E13" s="23">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I13">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C13+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C13+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J13">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D13+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D13+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K13">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E13+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E13+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L13">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F13+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F13+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="M13">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G13+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G13+1,FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -2496,7 +2583,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="2"/>
-        <v>70.013000000000005</v>
+        <v>155.01300000000001</v>
       </c>
       <c r="C14" s="24" t="str">
         <f>Exercises!A14</f>
@@ -2508,34 +2595,34 @@
       </c>
       <c r="E14" s="23">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I14">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C14+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C14+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J14">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D14+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D14+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K14">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E14+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E14+1,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="L14">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F14+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F14+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M14">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G14+1,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="O14" s="20">
-        <f>IF(G$5=2,(VLOOKUP(R$2,P$2:Q$11,2,FALSE)),0)</f>
-        <v>0</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G14+1,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="O14" s="20" t="str">
+        <f ca="1">IF(G$5=2,(VLOOKUP(R$2,P$2:Q$11,2,FALSE)),0)</f>
+        <v>Heal Raises</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2544,7 +2631,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="2"/>
-        <v>125.014</v>
+        <v>155.01400000000001</v>
       </c>
       <c r="C15" s="24" t="str">
         <f>Exercises!A15</f>
@@ -2556,30 +2643,30 @@
       </c>
       <c r="E15" s="23">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="F15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I15">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C15+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C15+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J15">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D15+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D15+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="K15">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E15+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E15+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L15">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F15+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F15+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M15">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G15+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G15+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="O15" s="20">
         <f>IF(G$5=3,(VLOOKUP(R$2,P$2:Q$11,2,FALSE)),0)</f>
@@ -2592,7 +2679,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="2"/>
-        <v>80.015000000000001</v>
+        <v>165.01499999999999</v>
       </c>
       <c r="C16" s="24" t="str">
         <f>Exercises!A16</f>
@@ -2604,29 +2691,29 @@
       </c>
       <c r="E16" s="23">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="F16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I16">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C16+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C16+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J16">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D16+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D16+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K16">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E16+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E16+1,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="L16">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F16+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F16+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M16">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G16+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G16+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="O16" s="20">
@@ -2640,7 +2727,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="2"/>
-        <v>70.016000000000005</v>
+        <v>155.01599999999999</v>
       </c>
       <c r="C17" s="24" t="str">
         <f>Exercises!A17</f>
@@ -2652,34 +2739,34 @@
       </c>
       <c r="E17" s="23">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I17">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C17+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C17+1,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="J17">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D17+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D17+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K17">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E17+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E17+1,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="L17">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F17+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F17+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M17">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G17+1,FALSE)</f>
-        <v>10</v>
-      </c>
-      <c r="O17" s="20" t="str">
-        <f ca="1">IF(G$5=5,(VLOOKUP(R$2,P$2:Q$11,2,FALSE)),0)</f>
-        <v>Circling Hands</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G17+1,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="O17" s="20">
+        <f>IF(G$5=5,(VLOOKUP(R$2,P$2:Q$11,2,FALSE)),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2688,7 +2775,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="2"/>
-        <v>45.017000000000003</v>
+        <v>140.017</v>
       </c>
       <c r="C18" s="24" t="str">
         <f>Exercises!A18</f>
@@ -2700,30 +2787,30 @@
       </c>
       <c r="E18" s="23">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I18">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C18+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C18+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J18">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D18+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D18+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K18">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E18+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E18+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L18">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F18+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F18+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M18">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G18+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G18+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="O18" s="20">
         <f>IF(G$5=6,(VLOOKUP(R$2,P$2:Q$11,2,FALSE)),0)</f>
@@ -2736,7 +2823,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="2"/>
-        <v>80.018000000000001</v>
+        <v>180.018</v>
       </c>
       <c r="C19" s="24" t="str">
         <f>Exercises!A19</f>
@@ -2748,29 +2835,29 @@
       </c>
       <c r="E19" s="23">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="F19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I19">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C19+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C19+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J19">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D19+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D19+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K19">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E19+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E19+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L19">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F19+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F19+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M19">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G19+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G19+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="O19" s="20">
@@ -2784,7 +2871,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="2"/>
-        <v>105.01900000000001</v>
+        <v>165.01900000000001</v>
       </c>
       <c r="C20" s="24" t="str">
         <f>Exercises!A20</f>
@@ -2796,29 +2883,29 @@
       </c>
       <c r="E20" s="23">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I20">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C20+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C20+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J20">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D20+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D20+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="K20">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E20+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E20+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L20">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F20+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F20+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M20">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G20+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G20+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="O20" s="20">
@@ -2832,7 +2919,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
-        <v>115.02</v>
+        <v>165.02</v>
       </c>
       <c r="C21" s="24" t="str">
         <f>Exercises!A21</f>
@@ -2844,30 +2931,30 @@
       </c>
       <c r="E21" s="23">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="F21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I21">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C21+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C21+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J21">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D21+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D21+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K21">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E21+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E21+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L21">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F21+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F21+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="M21">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G21+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G21+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="O21" s="20">
         <f>IF(G$5=9,(VLOOKUP(R$2,P$2:Q$11,2,FALSE)),0)</f>
@@ -2881,7 +2968,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
-        <v>110.021</v>
+        <v>145.02099999999999</v>
       </c>
       <c r="C22" s="24" t="str">
         <f>Exercises!A22</f>
@@ -2893,30 +2980,30 @@
       </c>
       <c r="E22" s="23">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="F22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I22">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C22+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C22+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J22">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D22+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D22+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K22">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E22+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E22+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L22">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F22+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F22+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M22">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G22+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G22+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="O22" s="20">
         <f>IF(G$5=10,(VLOOKUP(R$2,P$2:Q$11,2,FALSE)),0)</f>
@@ -2929,7 +3016,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="2"/>
-        <v>105.02200000000001</v>
+        <v>170.02199999999999</v>
       </c>
       <c r="C23" s="24" t="str">
         <f>Exercises!A23</f>
@@ -2941,30 +3028,30 @@
       </c>
       <c r="E23" s="23">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I23">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C23+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C23+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J23">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D23+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D23+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K23">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E23+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E23+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L23">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F23+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F23+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M23">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G23+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G23+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="O23" s="20"/>
     </row>
@@ -2974,7 +3061,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="2"/>
-        <v>90.022999999999996</v>
+        <v>175.023</v>
       </c>
       <c r="C24" s="24" t="str">
         <f>Exercises!A24</f>
@@ -2986,30 +3073,30 @@
       </c>
       <c r="E24" s="23">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="F24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I24">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C24+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C24+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J24">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D24+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D24+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K24">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E24+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E24+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L24">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F24+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F24+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M24">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G24+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G24+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="O24" s="20"/>
     </row>
@@ -3019,7 +3106,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="2"/>
-        <v>60.024000000000001</v>
+        <v>155.024</v>
       </c>
       <c r="C25" s="24" t="str">
         <f>Exercises!A25</f>
@@ -3031,29 +3118,29 @@
       </c>
       <c r="E25" s="23">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I25">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C25+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C25+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J25">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D25+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D25+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K25">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E25+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E25+1,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="L25">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F25+1,FALSE)</f>
-        <v>-15</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F25+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M25">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G25+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G25+1,FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -3063,7 +3150,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="2"/>
-        <v>110.02500000000001</v>
+        <v>160.02500000000001</v>
       </c>
       <c r="C26" s="24" t="str">
         <f>Exercises!A26</f>
@@ -3075,30 +3162,30 @@
       </c>
       <c r="E26" s="23">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I26">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C26+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C26+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J26">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D26+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D26+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K26">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E26+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E26+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L26">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F26+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F26+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="M26">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G26+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G26+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -3107,7 +3194,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="2"/>
-        <v>115.026</v>
+        <v>110.026</v>
       </c>
       <c r="C27" s="24" t="str">
         <f>Exercises!A27</f>
@@ -3119,30 +3206,30 @@
       </c>
       <c r="E27" s="23">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I27">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C27+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C27+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J27">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D27+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D27+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K27">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E27+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E27+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L27">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F27+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F27+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="M27">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G27+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G27+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -3151,7 +3238,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="2"/>
-        <v>105.027</v>
+        <v>115.027</v>
       </c>
       <c r="C28" s="24" t="str">
         <f>Exercises!A28</f>
@@ -3163,30 +3250,30 @@
       </c>
       <c r="E28" s="23">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I28">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C28+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C28+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J28">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D28+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D28+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K28">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E28+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E28+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L28">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F28+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F28+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M28">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G28+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G28+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -3195,7 +3282,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="2"/>
-        <v>95.028000000000006</v>
+        <v>120.02800000000001</v>
       </c>
       <c r="C29" s="24" t="str">
         <f>Exercises!A29</f>
@@ -3207,30 +3294,30 @@
       </c>
       <c r="E29" s="23">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I29">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C29+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C29+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J29">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D29+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D29+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K29">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E29+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E29+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L29">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F29+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F29+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M29">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G29+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G29+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -3239,7 +3326,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="2"/>
-        <v>90.028999999999996</v>
+        <v>135.029</v>
       </c>
       <c r="C30" s="24" t="str">
         <f>Exercises!A30</f>
@@ -3251,30 +3338,30 @@
       </c>
       <c r="E30" s="23">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I30">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C30+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C30+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J30">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D30+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D30+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K30">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E30+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E30+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L30">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F30+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F30+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M30">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G30+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G30+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3283,7 +3370,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="2"/>
-        <v>105.03</v>
+        <v>115.03</v>
       </c>
       <c r="C31" s="24" t="str">
         <f>Exercises!A31</f>
@@ -3295,30 +3382,30 @@
       </c>
       <c r="E31" s="23">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I31">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C31+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C31+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J31">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D31+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D31+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K31">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E31+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E31+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L31">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F31+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F31+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M31">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G31+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G31+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3327,7 +3414,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="2"/>
-        <v>90.031000000000006</v>
+        <v>115.03100000000001</v>
       </c>
       <c r="C32" s="24" t="str">
         <f>Exercises!A32</f>
@@ -3339,30 +3426,30 @@
       </c>
       <c r="E32" s="23">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I32">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C32+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C32+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J32">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D32+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D32+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K32">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E32+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E32+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L32">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F32+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F32+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M32">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G32+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G32+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -3371,7 +3458,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="2"/>
-        <v>105.032</v>
+        <v>115.032</v>
       </c>
       <c r="C33" s="24" t="str">
         <f>Exercises!A33</f>
@@ -3383,30 +3470,30 @@
       </c>
       <c r="E33" s="23">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I33">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C33+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C33+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J33">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D33+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D33+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K33">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E33+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E33+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L33">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F33+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F33+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M33">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G33+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G33+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3415,7 +3502,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="2"/>
-        <v>85.033000000000001</v>
+        <v>130.03299999999999</v>
       </c>
       <c r="C34" s="24" t="str">
         <f>Exercises!A34</f>
@@ -3427,30 +3514,30 @@
       </c>
       <c r="E34" s="23">
         <f t="shared" ref="E34:E65" si="3">F34+I34+J34+K34+L34+M34</f>
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="F34">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I34">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C34+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C34+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J34">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D34+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D34+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K34">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E34+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E34+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L34">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F34+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F34+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M34">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G34+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G34+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -3459,7 +3546,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="2"/>
-        <v>105.03400000000001</v>
+        <v>115.03400000000001</v>
       </c>
       <c r="C35" s="24" t="str">
         <f>Exercises!A35</f>
@@ -3471,30 +3558,30 @@
       </c>
       <c r="E35" s="23">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I35">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C35+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C35+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J35">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D35+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D35+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K35">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E35+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E35+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L35">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F35+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F35+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M35">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G35+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G35+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -3503,7 +3590,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="2"/>
-        <v>95.034999999999997</v>
+        <v>120.035</v>
       </c>
       <c r="C36" s="24" t="str">
         <f>Exercises!A36</f>
@@ -3515,30 +3602,30 @@
       </c>
       <c r="E36" s="23">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I36">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C36+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C36+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J36">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D36+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D36+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K36">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E36+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E36+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L36">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F36+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F36+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M36">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G36+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G36+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -3547,7 +3634,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="2"/>
-        <v>85.036000000000001</v>
+        <v>130.036</v>
       </c>
       <c r="C37" s="24" t="str">
         <f>Exercises!A37</f>
@@ -3559,30 +3646,30 @@
       </c>
       <c r="E37" s="23">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I37">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C37+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C37+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J37">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D37+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D37+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K37">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E37+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E37+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L37">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F37+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F37+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M37">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G37+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G37+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3591,7 +3678,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="2"/>
-        <v>140.03700000000001</v>
+        <v>145.03700000000001</v>
       </c>
       <c r="C38" s="24" t="str">
         <f>Exercises!A38</f>
@@ -3603,30 +3690,30 @@
       </c>
       <c r="E38" s="23">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I38">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C38+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C38+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J38">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D38+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D38+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K38">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E38+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E38+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L38">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F38+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F38+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="M38">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G38+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G38+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -3635,7 +3722,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="2"/>
-        <v>115.038</v>
+        <v>135.03800000000001</v>
       </c>
       <c r="C39" s="24" t="str">
         <f>Exercises!A39</f>
@@ -3647,30 +3734,30 @@
       </c>
       <c r="E39" s="23">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F39">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I39">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C39+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C39+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J39">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D39+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D39+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K39">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E39+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E39+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L39">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F39+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F39+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M39">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G39+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G39+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3679,7 +3766,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="2"/>
-        <v>115.039</v>
+        <v>135.03899999999999</v>
       </c>
       <c r="C40" s="24" t="str">
         <f>Exercises!A40</f>
@@ -3691,30 +3778,30 @@
       </c>
       <c r="E40" s="23">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I40">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C40+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C40+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J40">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D40+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D40+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K40">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E40+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E40+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L40">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F40+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F40+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M40">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G40+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G40+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3723,7 +3810,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="2"/>
-        <v>85.04</v>
+        <v>140.04</v>
       </c>
       <c r="C41" s="24" t="str">
         <f>Exercises!A41</f>
@@ -3735,30 +3822,30 @@
       </c>
       <c r="E41" s="23">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I41">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C41+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C41+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J41">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D41+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D41+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K41">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E41+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E41+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L41">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F41+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F41+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M41">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G41+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G41+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3767,7 +3854,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="2"/>
-        <v>65.040999999999997</v>
+        <v>135.041</v>
       </c>
       <c r="C42" s="24" t="str">
         <f>Exercises!A42</f>
@@ -3779,29 +3866,29 @@
       </c>
       <c r="E42" s="23">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="F42">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I42">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C42+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C42+1,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="J42">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D42+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D42+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K42">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E42+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E42+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L42">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F42+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F42+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M42">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G42+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G42+1,FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -3811,7 +3898,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="2"/>
-        <v>75.042000000000002</v>
+        <v>145.042</v>
       </c>
       <c r="C43" s="24" t="str">
         <f>Exercises!A43</f>
@@ -3823,29 +3910,29 @@
       </c>
       <c r="E43" s="23">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="F43">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I43">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C43+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C43+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J43">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D43+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D43+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K43">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E43+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E43+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L43">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F43+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F43+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M43">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G43+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G43+1,FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -3855,7 +3942,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="2"/>
-        <v>100.04300000000001</v>
+        <v>140.04300000000001</v>
       </c>
       <c r="C44" s="24" t="str">
         <f>Exercises!A44</f>
@@ -3867,30 +3954,30 @@
       </c>
       <c r="E44" s="23">
         <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="F44">
         <v>100</v>
       </c>
-      <c r="F44">
-        <v>50</v>
-      </c>
       <c r="I44">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C44+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C44+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J44">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D44+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D44+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K44">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E44+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E44+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L44">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F44+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F44+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M44">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G44+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G44+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3899,7 +3986,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="2"/>
-        <v>45.043999999999997</v>
+        <v>130.04400000000001</v>
       </c>
       <c r="C45" s="24" t="str">
         <f>Exercises!A45</f>
@@ -3911,30 +3998,30 @@
       </c>
       <c r="E45" s="23">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I45">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C45+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C45+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J45">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D45+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D45+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K45">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E45+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E45+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L45">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F45+1,FALSE)</f>
-        <v>-15</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F45+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M45">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G45+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G45+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3943,7 +4030,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="2"/>
-        <v>130.04499999999999</v>
+        <v>135.04499999999999</v>
       </c>
       <c r="C46" s="24" t="str">
         <f>Exercises!A46</f>
@@ -3955,30 +4042,30 @@
       </c>
       <c r="E46" s="23">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F46">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I46">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C46+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C46+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J46">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D46+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D46+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K46">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E46+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E46+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L46">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F46+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F46+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="M46">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G46+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G46+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3987,7 +4074,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="2"/>
-        <v>45.045999999999999</v>
+        <v>125.04600000000001</v>
       </c>
       <c r="C47" s="24" t="str">
         <f>Exercises!A47</f>
@@ -3999,30 +4086,30 @@
       </c>
       <c r="E47" s="23">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="F47">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I47">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C47+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C47+1,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="J47">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D47+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D47+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K47">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E47+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E47+1,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="L47">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F47+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F47+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M47">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G47+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G47+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -4031,7 +4118,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="2"/>
-        <v>25.047000000000001</v>
+        <v>130.047</v>
       </c>
       <c r="C48" s="24" t="str">
         <f>Exercises!A48</f>
@@ -4043,30 +4130,30 @@
       </c>
       <c r="E48" s="23">
         <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C48+1,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="J48">
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D48+1,FALSE)</f>
+        <v>-15</v>
+      </c>
+      <c r="K48">
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E48+1,FALSE)</f>
         <v>25</v>
       </c>
-      <c r="F48">
-        <v>50</v>
-      </c>
-      <c r="I48">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C48+1,FALSE)</f>
-        <v>-5</v>
-      </c>
-      <c r="J48">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D48+1,FALSE)</f>
-        <v>-5</v>
-      </c>
-      <c r="K48">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E48+1,FALSE)</f>
-        <v>-5</v>
-      </c>
       <c r="L48">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F48+1,FALSE)</f>
-        <v>-15</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F48+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M48">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G48+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G48+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -4075,7 +4162,7 @@
       </c>
       <c r="B49">
         <f t="shared" si="2"/>
-        <v>70.048000000000002</v>
+        <v>155.048</v>
       </c>
       <c r="C49" s="24" t="str">
         <f>Exercises!A49</f>
@@ -4087,29 +4174,29 @@
       </c>
       <c r="E49" s="23">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="F49">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I49">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C49+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C49+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J49">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D49+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D49+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K49">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E49+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E49+1,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="L49">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F49+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F49+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M49">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G49+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G49+1,FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -4119,7 +4206,7 @@
       </c>
       <c r="B50">
         <f t="shared" si="2"/>
-        <v>110.04900000000001</v>
+        <v>185.04900000000001</v>
       </c>
       <c r="C50" s="24" t="str">
         <f>Exercises!A50</f>
@@ -4131,29 +4218,29 @@
       </c>
       <c r="E50" s="23">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>185</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I50">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C50+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C50+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J50">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D50+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D50+1,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E50+1,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="K50">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E50+1,FALSE)</f>
-        <v>5</v>
-      </c>
       <c r="L50">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F50+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F50+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M50">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G50+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G50+1,FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -4163,7 +4250,7 @@
       </c>
       <c r="B51">
         <f t="shared" si="2"/>
-        <v>130.05000000000001</v>
+        <v>140.05000000000001</v>
       </c>
       <c r="C51" s="24" t="str">
         <f>Exercises!A51</f>
@@ -4175,30 +4262,30 @@
       </c>
       <c r="E51" s="23">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I51">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C51+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C51+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J51">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D51+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D51+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="K51">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E51+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E51+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L51">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F51+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F51+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M51">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G51+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G51+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4207,7 +4294,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="2"/>
-        <v>110.051</v>
+        <v>175.05099999999999</v>
       </c>
       <c r="C52" s="24" t="str">
         <f>Exercises!A52</f>
@@ -4219,30 +4306,30 @@
       </c>
       <c r="E52" s="23">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="F52">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I52">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C52+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C52+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J52">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D52+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D52+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="K52">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E52+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E52+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L52">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F52+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F52+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M52">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G52+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G52+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4251,7 +4338,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="2"/>
-        <v>110.05200000000001</v>
+        <v>180.05199999999999</v>
       </c>
       <c r="C53" s="24" t="str">
         <f>Exercises!A53</f>
@@ -4263,30 +4350,30 @@
       </c>
       <c r="E53" s="23">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="F53">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I53">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C53+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C53+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J53">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D53+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D53+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K53">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E53+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E53+1,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="L53">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F53+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F53+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M53">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G53+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G53+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4295,7 +4382,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="2"/>
-        <v>110.053</v>
+        <v>150.053</v>
       </c>
       <c r="C54" s="24" t="str">
         <f>Exercises!A54</f>
@@ -4307,30 +4394,30 @@
       </c>
       <c r="E54" s="23">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="F54">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I54">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C54+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C54+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J54">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D54+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D54+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="K54">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E54+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E54+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L54">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F54+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F54+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M54">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G54+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G54+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4339,7 +4426,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="2"/>
-        <v>75.054000000000002</v>
+        <v>120.054</v>
       </c>
       <c r="C55" s="24" t="str">
         <f>Exercises!A55</f>
@@ -4351,30 +4438,30 @@
       </c>
       <c r="E55" s="23">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F55">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I55">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C55+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C55+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J55">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D55+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D55+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K55">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E55+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E55+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L55">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F55+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F55+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M55">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G55+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G55+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4383,7 +4470,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="2"/>
-        <v>110.05500000000001</v>
+        <v>150.05500000000001</v>
       </c>
       <c r="C56" s="24" t="str">
         <f>Exercises!A56</f>
@@ -4395,30 +4482,30 @@
       </c>
       <c r="E56" s="23">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="F56">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I56">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C56+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C56+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J56">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D56+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D56+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K56">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E56+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E56+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L56">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F56+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F56+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M56">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G56+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G56+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4427,7 +4514,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="2"/>
-        <v>150.05600000000001</v>
+        <v>145.05600000000001</v>
       </c>
       <c r="C57" s="24" t="str">
         <f>Exercises!A57</f>
@@ -4439,30 +4526,30 @@
       </c>
       <c r="E57" s="23">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F57">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I57">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C57+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C57+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J57">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D57+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D57+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="K57">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E57+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E57+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L57">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F57+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F57+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="M57">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G57+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G57+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4471,7 +4558,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="2"/>
-        <v>65.057000000000002</v>
+        <v>135.05699999999999</v>
       </c>
       <c r="C58" s="24" t="str">
         <f>Exercises!A58</f>
@@ -4483,30 +4570,30 @@
       </c>
       <c r="E58" s="23">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="F58">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I58">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C58+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C58+1,FALSE)</f>
         <v>-15</v>
       </c>
       <c r="J58">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D58+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D58+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K58">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E58+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E58+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L58">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F58+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F58+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M58">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G58+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G58+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -4515,7 +4602,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="2"/>
-        <v>85.058000000000007</v>
+        <v>145.05799999999999</v>
       </c>
       <c r="C59" s="24" t="str">
         <f>Exercises!A59</f>
@@ -4527,30 +4614,30 @@
       </c>
       <c r="E59" s="23">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="F59">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I59">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C59+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C59+1,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="J59">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D59+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D59+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K59">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E59+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E59+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L59">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F59+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F59+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M59">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G59+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G59+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -4559,7 +4646,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="2"/>
-        <v>85.058999999999997</v>
+        <v>145.059</v>
       </c>
       <c r="C60" s="24" t="str">
         <f>Exercises!A60</f>
@@ -4571,30 +4658,30 @@
       </c>
       <c r="E60" s="23">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="F60">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I60">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C60+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C60+1,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="J60">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D60+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D60+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K60">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E60+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E60+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L60">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F60+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F60+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M60">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G60+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G60+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -4603,7 +4690,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="2"/>
-        <v>90.06</v>
+        <v>125.06</v>
       </c>
       <c r="C61" s="24" t="str">
         <f>Exercises!A61</f>
@@ -4615,30 +4702,30 @@
       </c>
       <c r="E61" s="23">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F61">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I61">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C61+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C61+1,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="J61">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D61+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D61+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K61">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E61+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E61+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L61">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F61+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F61+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="M61">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G61+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G61+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4647,7 +4734,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="2"/>
-        <v>125.06100000000001</v>
+        <v>165.06100000000001</v>
       </c>
       <c r="C62" s="24" t="str">
         <f>Exercises!A62</f>
@@ -4659,30 +4746,30 @@
       </c>
       <c r="E62" s="23">
         <f t="shared" si="3"/>
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="F62">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I62">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C62+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C62+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J62">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D62+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D62+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K62">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E62+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E62+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L62">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F62+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F62+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M62">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G62+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G62+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -4691,7 +4778,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="2"/>
-        <v>105.062</v>
+        <v>145.06200000000001</v>
       </c>
       <c r="C63" s="24" t="str">
         <f>Exercises!A63</f>
@@ -4703,30 +4790,30 @@
       </c>
       <c r="E63" s="23">
         <f t="shared" si="3"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="F63">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I63">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C63+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C63+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J63">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D63+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D63+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K63">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E63+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E63+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L63">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F63+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F63+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M63">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G63+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G63+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -4735,7 +4822,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="2"/>
-        <v>150.06299999999999</v>
+        <v>145.06299999999999</v>
       </c>
       <c r="C64" s="24" t="str">
         <f>Exercises!A64</f>
@@ -4747,30 +4834,30 @@
       </c>
       <c r="E64" s="23">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F64">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I64">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C64+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C64+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J64">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D64+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D64+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="K64">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E64+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E64+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L64">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F64+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F64+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="M64">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G64+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G64+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4779,7 +4866,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="2"/>
-        <v>140.06399999999999</v>
+        <v>150.06399999999999</v>
       </c>
       <c r="C65" s="24" t="str">
         <f>Exercises!A65</f>
@@ -4791,29 +4878,29 @@
       </c>
       <c r="E65" s="23">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F65">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I65">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C65+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C65+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J65">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D65+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D65+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="K65">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E65+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E65+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L65">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F65+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F65+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="M65">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G65+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G65+1,FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -4823,7 +4910,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="2"/>
-        <v>100.065</v>
+        <v>125.065</v>
       </c>
       <c r="C66" s="24" t="str">
         <f>Exercises!A66</f>
@@ -4835,30 +4922,30 @@
       </c>
       <c r="E66" s="23">
         <f t="shared" ref="E66:E97" si="4">F66+I66+J66+K66+L66+M66</f>
+        <v>125</v>
+      </c>
+      <c r="F66">
         <v>100</v>
       </c>
-      <c r="F66">
-        <v>50</v>
-      </c>
       <c r="I66">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C66+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C66+1,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="J66">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D66+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D66+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K66">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E66+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E66+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L66">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F66+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F66+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="M66">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G66+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G66+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4867,7 +4954,7 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B115" si="5">E67+A67</f>
-        <v>60.066000000000003</v>
+        <v>125.066</v>
       </c>
       <c r="C67" s="24" t="str">
         <f>Exercises!A67</f>
@@ -4879,30 +4966,30 @@
       </c>
       <c r="E67" s="23">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F67">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I67">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C67+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C67+1,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="J67">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D67+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D67+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K67">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E67+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E67+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L67">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F67+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F67+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M67">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G67+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G67+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4911,7 +4998,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="5"/>
-        <v>95.066999999999993</v>
+        <v>145.06700000000001</v>
       </c>
       <c r="C68" s="24" t="str">
         <f>Exercises!A68</f>
@@ -4923,29 +5010,29 @@
       </c>
       <c r="E68" s="23">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I68">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C68+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C68+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J68">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D68+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D68+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K68">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E68+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E68+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L68">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F68+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F68+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M68">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G68+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G68+1,FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -4955,7 +5042,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="5"/>
-        <v>105.068</v>
+        <v>140.06800000000001</v>
       </c>
       <c r="C69" s="24" t="str">
         <f>Exercises!A69</f>
@@ -4967,29 +5054,29 @@
       </c>
       <c r="E69" s="23">
         <f t="shared" si="4"/>
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="F69">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I69">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C69+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C69+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J69">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D69+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D69+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K69">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E69+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E69+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L69">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F69+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F69+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M69">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G69+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G69+1,FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -4999,7 +5086,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="5"/>
-        <v>20.068999999999999</v>
+        <v>110.069</v>
       </c>
       <c r="C70" s="24" t="str">
         <f>Exercises!A70</f>
@@ -5011,30 +5098,30 @@
       </c>
       <c r="E70" s="23">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F70">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I70">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C70+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C70+1,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="J70">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D70+1,FALSE)</f>
-        <v>-15</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D70+1,FALSE)</f>
+        <v>-20</v>
       </c>
       <c r="K70">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E70+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E70+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L70">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F70+1,FALSE)</f>
-        <v>-15</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F70+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M70">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G70+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G70+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -5043,7 +5130,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="5"/>
-        <v>95.07</v>
+        <v>150.07</v>
       </c>
       <c r="C71" s="24" t="str">
         <f>Exercises!A71</f>
@@ -5055,30 +5142,30 @@
       </c>
       <c r="E71" s="23">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="F71">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I71">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C71+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C71+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J71">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D71+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D71+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K71">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E71+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E71+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L71">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F71+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F71+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M71">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G71+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G71+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -5087,7 +5174,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="5"/>
-        <v>80.070999999999998</v>
+        <v>145.071</v>
       </c>
       <c r="C72" s="24" t="str">
         <f>Exercises!A72</f>
@@ -5099,30 +5186,30 @@
       </c>
       <c r="E72" s="23">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="F72">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I72">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C72+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C72+1,FALSE)</f>
         <v>5</v>
       </c>
       <c r="J72">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D72+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D72+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K72">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E72+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E72+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="L72">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F72+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F72+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="M72">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G72+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G72+1,FALSE)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -5131,7 +5218,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="5"/>
-        <v>90.072000000000003</v>
+        <v>160.072</v>
       </c>
       <c r="C73" s="24" t="str">
         <f>Exercises!A73</f>
@@ -5143,30 +5230,30 @@
       </c>
       <c r="E73" s="23">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F73">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I73">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C73+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C73+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J73">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D73+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D73+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K73">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E73+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E73+1,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="L73">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F73+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F73+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M73">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G73+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G73+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -5175,7 +5262,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="5"/>
-        <v>90.072999999999993</v>
+        <v>160.07300000000001</v>
       </c>
       <c r="C74" s="24" t="str">
         <f>Exercises!A74</f>
@@ -5187,30 +5274,30 @@
       </c>
       <c r="E74" s="23">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F74">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I74">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C74+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C74+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J74">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D74+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D74+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K74">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E74+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E74+1,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="L74">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F74+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F74+1,FALSE)</f>
+        <v>15</v>
       </c>
       <c r="M74">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G74+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G74+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -5219,7 +5306,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="5"/>
-        <v>90.073999999999998</v>
+        <v>175.07400000000001</v>
       </c>
       <c r="C75" s="24" t="str">
         <f>Exercises!A75</f>
@@ -5231,30 +5318,30 @@
       </c>
       <c r="E75" s="23">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="F75">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I75">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C75+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C75+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="J75">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D75+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D75+1,FALSE)</f>
         <v>10</v>
       </c>
       <c r="K75">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E75+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E75+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="L75">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F75+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F75+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M75">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G75+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G75+1,FALSE)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -5263,7 +5350,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="5"/>
-        <v>75.075000000000003</v>
+        <v>120.075</v>
       </c>
       <c r="C76" s="24" t="str">
         <f>Exercises!A76</f>
@@ -5275,29 +5362,29 @@
       </c>
       <c r="E76" s="23">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="F76">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I76">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C76+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C76+1,FALSE)</f>
         <v>-5</v>
       </c>
       <c r="J76">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D76+1,FALSE)</f>
-        <v>-5</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D76+1,FALSE)</f>
+        <v>-15</v>
       </c>
       <c r="K76">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E76+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E76+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L76">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F76+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F76+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M76">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G76+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G76+1,FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -5307,7 +5394,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="5"/>
-        <v>125.07599999999999</v>
+        <v>170.07599999999999</v>
       </c>
       <c r="C77" s="24" t="str">
         <f>Exercises!A77</f>
@@ -5319,29 +5406,29 @@
       </c>
       <c r="E77" s="23">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="F77">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I77">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C77+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C77+1,FALSE)</f>
         <v>20</v>
       </c>
       <c r="J77">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D77+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D77+1,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="K77">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E77+1,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E77+1,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L77">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F77+1,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F77+1,FALSE)</f>
+        <v>25</v>
       </c>
       <c r="M77">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G77+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G77+1,FALSE)</f>
         <v>10</v>
       </c>
     </row>
@@ -5351,7 +5438,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="5"/>
-        <v>65.076999999999998</v>
+        <v>115.077</v>
       </c>
       <c r="C78" s="24" t="str">
         <f>Exercises!A78</f>
@@ -5363,29 +5450,29 @@
       </c>
       <c r="E78" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F78">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I78">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C78+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C78+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J78">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D78+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D78+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K78">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E78+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E78+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L78">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F78+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F78+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M78">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G78+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G78+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5395,7 +5482,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="5"/>
-        <v>65.078000000000003</v>
+        <v>115.078</v>
       </c>
       <c r="C79" s="24" t="str">
         <f>Exercises!A79</f>
@@ -5407,29 +5494,29 @@
       </c>
       <c r="E79" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F79">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I79">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C79+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C79+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J79">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D79+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D79+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K79">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E79+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E79+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L79">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F79+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F79+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M79">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G79+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G79+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5439,7 +5526,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="5"/>
-        <v>65.078999999999994</v>
+        <v>115.07899999999999</v>
       </c>
       <c r="C80" s="24" t="str">
         <f>Exercises!A80</f>
@@ -5451,29 +5538,29 @@
       </c>
       <c r="E80" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F80">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I80">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C80+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C80+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J80">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D80+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D80+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K80">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E80+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E80+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L80">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F80+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F80+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M80">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G80+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G80+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5483,7 +5570,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="5"/>
-        <v>65.08</v>
+        <v>115.08</v>
       </c>
       <c r="C81" s="24" t="str">
         <f>Exercises!A81</f>
@@ -5495,29 +5582,29 @@
       </c>
       <c r="E81" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F81">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I81">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C81+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C81+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J81">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D81+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D81+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K81">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E81+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E81+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L81">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F81+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F81+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M81">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G81+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G81+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5527,7 +5614,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="5"/>
-        <v>65.081000000000003</v>
+        <v>115.081</v>
       </c>
       <c r="C82" s="24">
         <f>Exercises!A82</f>
@@ -5535,29 +5622,29 @@
       </c>
       <c r="E82" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F82">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I82">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C82+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C82+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J82">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D82+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D82+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K82">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E82+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E82+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L82">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F82+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F82+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M82">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G82+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G82+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5567,7 +5654,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="5"/>
-        <v>65.081999999999994</v>
+        <v>115.08199999999999</v>
       </c>
       <c r="C83" s="24">
         <f>Exercises!A83</f>
@@ -5575,29 +5662,29 @@
       </c>
       <c r="E83" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F83">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I83">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C83+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C83+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J83">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D83+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D83+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K83">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E83+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E83+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L83">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F83+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F83+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M83">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G83+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G83+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5607,7 +5694,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="5"/>
-        <v>65.082999999999998</v>
+        <v>115.083</v>
       </c>
       <c r="C84" s="24">
         <f>Exercises!A84</f>
@@ -5615,29 +5702,29 @@
       </c>
       <c r="E84" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F84">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I84">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C84+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C84+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J84">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D84+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D84+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K84">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E84+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E84+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L84">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F84+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F84+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M84">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G84+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G84+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5647,7 +5734,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="5"/>
-        <v>65.084000000000003</v>
+        <v>115.084</v>
       </c>
       <c r="C85" s="24">
         <f>Exercises!A85</f>
@@ -5655,29 +5742,29 @@
       </c>
       <c r="E85" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F85">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I85">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C85+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C85+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J85">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D85+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D85+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K85">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E85+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E85+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L85">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F85+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F85+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M85">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G85+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G85+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5687,7 +5774,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="5"/>
-        <v>65.084999999999994</v>
+        <v>115.08499999999999</v>
       </c>
       <c r="C86" s="24">
         <f>Exercises!A86</f>
@@ -5695,29 +5782,29 @@
       </c>
       <c r="E86" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F86">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I86">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C86+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C86+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J86">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D86+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D86+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K86">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E86+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E86+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L86">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F86+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F86+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M86">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G86+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G86+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5727,7 +5814,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="5"/>
-        <v>65.085999999999999</v>
+        <v>115.086</v>
       </c>
       <c r="C87" s="24">
         <f>Exercises!A87</f>
@@ -5735,29 +5822,29 @@
       </c>
       <c r="E87" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F87">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I87">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C87+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C87+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J87">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D87+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D87+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K87">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E87+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E87+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L87">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F87+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F87+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M87">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G87+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G87+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5767,7 +5854,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="5"/>
-        <v>65.087000000000003</v>
+        <v>115.087</v>
       </c>
       <c r="C88" s="24">
         <f>Exercises!A88</f>
@@ -5775,29 +5862,29 @@
       </c>
       <c r="E88" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F88">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I88">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C88+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C88+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J88">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D88+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D88+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K88">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E88+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E88+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L88">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F88+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F88+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M88">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G88+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G88+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5807,7 +5894,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="5"/>
-        <v>65.087999999999994</v>
+        <v>115.08799999999999</v>
       </c>
       <c r="C89" s="24">
         <f>Exercises!A89</f>
@@ -5815,29 +5902,29 @@
       </c>
       <c r="E89" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F89">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I89">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C89+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C89+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J89">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D89+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D89+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K89">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E89+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E89+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L89">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F89+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F89+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M89">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G89+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G89+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5847,7 +5934,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="5"/>
-        <v>65.088999999999999</v>
+        <v>115.089</v>
       </c>
       <c r="C90" s="24">
         <f>Exercises!A90</f>
@@ -5855,29 +5942,29 @@
       </c>
       <c r="E90" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F90">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I90">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C90+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C90+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J90">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D90+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D90+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K90">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E90+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E90+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L90">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F90+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F90+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M90">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G90+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G90+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5887,7 +5974,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="5"/>
-        <v>65.09</v>
+        <v>115.09</v>
       </c>
       <c r="C91" s="24">
         <f>Exercises!A91</f>
@@ -5895,29 +5982,29 @@
       </c>
       <c r="E91" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F91">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I91">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C91+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C91+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J91">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D91+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D91+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K91">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E91+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E91+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L91">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F91+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F91+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M91">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G91+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G91+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5927,7 +6014,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="5"/>
-        <v>65.090999999999994</v>
+        <v>115.09099999999999</v>
       </c>
       <c r="C92" s="24">
         <f>Exercises!A92</f>
@@ -5935,29 +6022,29 @@
       </c>
       <c r="E92" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F92">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I92">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C92+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C92+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J92">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D92+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D92+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K92">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E92+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E92+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L92">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F92+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F92+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M92">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G92+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G92+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -5967,7 +6054,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="5"/>
-        <v>65.091999999999999</v>
+        <v>115.092</v>
       </c>
       <c r="C93" s="24">
         <f>Exercises!A93</f>
@@ -5975,29 +6062,29 @@
       </c>
       <c r="E93" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F93">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I93">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C93+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C93+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J93">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D93+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D93+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K93">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E93+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E93+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L93">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F93+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F93+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M93">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G93+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G93+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6007,7 +6094,7 @@
       </c>
       <c r="B94">
         <f t="shared" si="5"/>
-        <v>65.093000000000004</v>
+        <v>115.093</v>
       </c>
       <c r="C94" s="24">
         <f>Exercises!A94</f>
@@ -6015,29 +6102,29 @@
       </c>
       <c r="E94" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F94">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I94">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C94+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C94+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J94">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D94+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D94+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K94">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E94+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E94+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L94">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F94+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F94+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M94">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G94+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G94+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6047,7 +6134,7 @@
       </c>
       <c r="B95">
         <f t="shared" si="5"/>
-        <v>65.093999999999994</v>
+        <v>115.09399999999999</v>
       </c>
       <c r="C95" s="24">
         <f>Exercises!A95</f>
@@ -6055,29 +6142,29 @@
       </c>
       <c r="E95" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F95">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I95">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C95+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C95+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J95">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D95+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D95+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K95">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E95+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E95+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L95">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F95+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F95+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M95">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G95+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G95+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6087,7 +6174,7 @@
       </c>
       <c r="B96">
         <f t="shared" si="5"/>
-        <v>65.094999999999999</v>
+        <v>115.095</v>
       </c>
       <c r="C96" s="24">
         <f>Exercises!A96</f>
@@ -6095,29 +6182,29 @@
       </c>
       <c r="E96" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F96">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I96">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C96+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C96+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J96">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D96+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D96+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K96">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E96+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E96+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L96">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F96+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F96+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M96">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G96+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G96+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6127,7 +6214,7 @@
       </c>
       <c r="B97">
         <f t="shared" si="5"/>
-        <v>65.096000000000004</v>
+        <v>115.096</v>
       </c>
       <c r="C97" s="24">
         <f>Exercises!A97</f>
@@ -6135,29 +6222,29 @@
       </c>
       <c r="E97" s="23">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F97">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I97">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C97+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C97+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J97">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D97+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D97+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K97">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E97+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E97+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L97">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F97+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F97+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M97">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G97+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G97+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6167,7 +6254,7 @@
       </c>
       <c r="B98">
         <f t="shared" si="5"/>
-        <v>65.096999999999994</v>
+        <v>115.09699999999999</v>
       </c>
       <c r="C98" s="24">
         <f>Exercises!A98</f>
@@ -6175,29 +6262,29 @@
       </c>
       <c r="E98" s="23">
         <f t="shared" ref="E98:E115" si="6">F98+I98+J98+K98+L98+M98</f>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F98">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I98">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C98+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C98+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J98">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D98+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D98+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K98">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E98+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E98+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L98">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F98+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F98+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M98">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G98+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G98+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6207,7 +6294,7 @@
       </c>
       <c r="B99">
         <f t="shared" si="5"/>
-        <v>65.097999999999999</v>
+        <v>115.098</v>
       </c>
       <c r="C99" s="24">
         <f>Exercises!A99</f>
@@ -6215,29 +6302,29 @@
       </c>
       <c r="E99" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F99">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I99">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C99+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C99+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J99">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D99+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D99+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K99">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E99+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E99+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L99">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F99+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F99+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M99">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G99+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G99+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6247,7 +6334,7 @@
       </c>
       <c r="B100">
         <f t="shared" si="5"/>
-        <v>65.099000000000004</v>
+        <v>115.099</v>
       </c>
       <c r="C100" s="24">
         <f>Exercises!A100</f>
@@ -6255,29 +6342,29 @@
       </c>
       <c r="E100" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F100">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I100">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C100+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C100+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J100">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D100+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D100+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K100">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E100+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E100+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L100">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F100+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F100+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M100">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G100+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G100+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6287,7 +6374,7 @@
       </c>
       <c r="B101">
         <f t="shared" si="5"/>
-        <v>65.099999999999994</v>
+        <v>115.1</v>
       </c>
       <c r="C101" s="24">
         <f>Exercises!A101</f>
@@ -6295,29 +6382,29 @@
       </c>
       <c r="E101" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F101">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I101">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C101+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C101+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J101">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D101+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D101+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K101">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E101+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E101+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L101">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F101+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F101+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M101">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G101+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G101+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6327,7 +6414,7 @@
       </c>
       <c r="B102">
         <f t="shared" si="5"/>
-        <v>65.100999999999999</v>
+        <v>115.101</v>
       </c>
       <c r="C102" s="24">
         <f>Exercises!A102</f>
@@ -6335,29 +6422,29 @@
       </c>
       <c r="E102" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F102">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I102">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C102+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C102+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J102">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D102+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D102+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K102">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E102+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E102+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L102">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F102+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F102+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M102">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G102+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G102+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6367,7 +6454,7 @@
       </c>
       <c r="B103">
         <f t="shared" si="5"/>
-        <v>65.102000000000004</v>
+        <v>115.102</v>
       </c>
       <c r="C103" s="24">
         <f>Exercises!A103</f>
@@ -6375,29 +6462,29 @@
       </c>
       <c r="E103" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F103">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I103">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C103+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C103+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J103">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D103+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D103+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K103">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E103+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E103+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L103">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F103+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F103+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M103">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G103+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G103+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6407,7 +6494,7 @@
       </c>
       <c r="B104">
         <f t="shared" si="5"/>
-        <v>65.102999999999994</v>
+        <v>115.10299999999999</v>
       </c>
       <c r="C104" s="24">
         <f>Exercises!A104</f>
@@ -6415,29 +6502,29 @@
       </c>
       <c r="E104" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F104">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I104">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C104+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C104+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J104">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D104+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D104+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K104">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E104+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E104+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L104">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F104+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F104+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M104">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G104+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G104+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6447,7 +6534,7 @@
       </c>
       <c r="B105">
         <f t="shared" si="5"/>
-        <v>65.103999999999999</v>
+        <v>115.104</v>
       </c>
       <c r="C105" s="24">
         <f>Exercises!A105</f>
@@ -6455,29 +6542,29 @@
       </c>
       <c r="E105" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F105">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I105">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C105+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C105+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J105">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D105+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D105+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K105">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E105+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E105+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L105">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F105+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F105+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M105">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G105+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G105+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6487,7 +6574,7 @@
       </c>
       <c r="B106">
         <f t="shared" si="5"/>
-        <v>65.105000000000004</v>
+        <v>115.105</v>
       </c>
       <c r="C106" s="24">
         <f>Exercises!A106</f>
@@ -6495,29 +6582,29 @@
       </c>
       <c r="E106" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F106">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I106">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C106+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C106+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J106">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D106+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D106+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K106">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E106+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E106+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L106">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F106+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F106+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M106">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G106+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G106+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6527,7 +6614,7 @@
       </c>
       <c r="B107">
         <f t="shared" si="5"/>
-        <v>65.105999999999995</v>
+        <v>115.10599999999999</v>
       </c>
       <c r="C107" s="24">
         <f>Exercises!A107</f>
@@ -6535,29 +6622,29 @@
       </c>
       <c r="E107" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F107">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I107">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C107+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C107+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J107">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D107+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D107+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K107">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E107+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E107+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L107">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F107+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F107+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M107">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G107+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G107+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6567,7 +6654,7 @@
       </c>
       <c r="B108">
         <f t="shared" si="5"/>
-        <v>65.106999999999999</v>
+        <v>115.107</v>
       </c>
       <c r="C108" s="24">
         <f>Exercises!A108</f>
@@ -6575,29 +6662,29 @@
       </c>
       <c r="E108" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F108">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I108">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C108+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C108+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J108">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D108+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D108+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K108">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E108+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E108+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L108">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F108+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F108+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M108">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G108+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G108+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6607,7 +6694,7 @@
       </c>
       <c r="B109">
         <f t="shared" si="5"/>
-        <v>65.108000000000004</v>
+        <v>115.108</v>
       </c>
       <c r="C109" s="24">
         <f>Exercises!A109</f>
@@ -6615,29 +6702,29 @@
       </c>
       <c r="E109" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F109">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I109">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C109+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C109+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J109">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D109+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D109+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K109">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E109+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E109+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L109">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F109+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F109+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M109">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G109+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G109+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6647,7 +6734,7 @@
       </c>
       <c r="B110">
         <f t="shared" si="5"/>
-        <v>65.108999999999995</v>
+        <v>115.10899999999999</v>
       </c>
       <c r="C110" s="24">
         <f>Exercises!A110</f>
@@ -6655,29 +6742,29 @@
       </c>
       <c r="E110" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F110">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I110">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C110+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C110+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J110">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D110+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D110+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K110">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E110+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E110+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L110">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F110+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F110+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M110">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G110+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G110+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6687,7 +6774,7 @@
       </c>
       <c r="B111">
         <f t="shared" si="5"/>
-        <v>65.11</v>
+        <v>115.11</v>
       </c>
       <c r="C111" s="24">
         <f>Exercises!A111</f>
@@ -6695,29 +6782,29 @@
       </c>
       <c r="E111" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F111">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I111">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C111+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C111+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J111">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D111+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D111+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K111">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E111+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E111+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L111">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F111+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F111+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M111">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G111+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G111+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6727,7 +6814,7 @@
       </c>
       <c r="B112">
         <f t="shared" si="5"/>
-        <v>65.111000000000004</v>
+        <v>115.111</v>
       </c>
       <c r="C112" s="24">
         <f>Exercises!A112</f>
@@ -6735,29 +6822,29 @@
       </c>
       <c r="E112" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F112">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I112">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C112+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C112+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J112">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D112+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D112+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K112">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E112+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E112+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L112">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F112+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F112+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M112">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G112+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G112+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6767,7 +6854,7 @@
       </c>
       <c r="B113">
         <f t="shared" si="5"/>
-        <v>65.111999999999995</v>
+        <v>115.11199999999999</v>
       </c>
       <c r="C113" s="24">
         <f>Exercises!A113</f>
@@ -6775,29 +6862,29 @@
       </c>
       <c r="E113" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F113">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I113">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C113+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C113+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J113">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D113+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D113+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K113">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E113+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E113+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L113">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F113+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F113+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M113">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G113+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G113+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6807,7 +6894,7 @@
       </c>
       <c r="B114">
         <f t="shared" si="5"/>
-        <v>65.113</v>
+        <v>115.113</v>
       </c>
       <c r="C114" s="24">
         <f>Exercises!A114</f>
@@ -6815,29 +6902,29 @@
       </c>
       <c r="E114" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F114">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I114">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C114+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C114+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J114">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D114+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D114+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K114">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E114+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E114+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L114">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F114+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F114+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M114">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G114+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G114+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6847,7 +6934,7 @@
       </c>
       <c r="B115">
         <f t="shared" si="5"/>
-        <v>65.114000000000004</v>
+        <v>115.114</v>
       </c>
       <c r="C115" s="24">
         <f>Exercises!A115</f>
@@ -6855,29 +6942,29 @@
       </c>
       <c r="E115" s="23">
         <f t="shared" si="6"/>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="F115">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I115">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!C115+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Exertion!$A$2:$F$8,Exercises!C115+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="J115">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!D115+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Technicality!A$2:F$8,Exercises!D115+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="K115">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!E115+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Flexibility!A$2:F$8,Exercises!E115+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="L115">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!F115+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Balance!A$2:F$8,Exercises!F115+1,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M115">
-        <f>VLOOKUP(H$2,Exertion!A$2:F$6,Exercises!G115+1,FALSE)</f>
+        <f>VLOOKUP(H$2,Strength!A$2:F$8,Exercises!G115+1,FALSE)</f>
         <v>3</v>
       </c>
     </row>
@@ -6896,8 +6983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="63" customHeight="1" x14ac:dyDescent="0"/>
@@ -6913,9 +7000,21 @@
         <v>288</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>316</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -6961,27 +7060,41 @@
         <v>8</v>
       </c>
       <c r="B2" s="16">
-        <f t="shared" ref="B2:B18" si="0">IF(C2&lt;100, 1, IF(C2&lt;300, 2, IF(C2&lt;400, 3, IF(C2&lt;550, 4, IF(C2&gt;550, 5,0)))))</f>
+        <f t="shared" ref="B2:B8" si="0">IF(C2&lt;101, 1, IF(C2&lt;201, 2, IF(C2&lt;251, 3, IF(C2&lt;301, 4, IF(C2&lt;351, 5,IF(C2&lt;501,6,7))))))</f>
         <v>1</v>
       </c>
       <c r="C2" s="16">
         <f t="shared" ref="C2:C18" si="1">IF(H2&lt;0,0,H2)</f>
         <v>0</v>
       </c>
+      <c r="D2">
+        <f>IF(G2=1, B2+1, B2)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <f>IF(F2=1,1.1,IF(F2=2,1.2,IF(F2=3,1.3,IF(F2=4,1.4,IF(F2=5,1.5)))))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16">
+        <v>1</v>
+      </c>
       <c r="H2" s="16">
-        <f t="shared" ref="H2:H18" si="2">(I2*1.75)+(J2*1.5)+(K2*1.25)-(L2*0.075)</f>
-        <v>-60</v>
+        <f>E2*((I2*1.75)+(J2*1.5)+(K2*1.25)-(L2*0.075))</f>
+        <v>-66</v>
       </c>
       <c r="I2" s="16">
-        <f t="shared" ref="I2:I18" si="3">M2*N2</f>
+        <f t="shared" ref="I2:I18" si="2">M2*N2</f>
         <v>0</v>
       </c>
       <c r="J2" s="16">
-        <f t="shared" ref="J2:J18" si="4">O2*P2</f>
+        <f t="shared" ref="J2:J18" si="3">O2*P2</f>
         <v>0</v>
       </c>
       <c r="K2" s="16">
-        <f t="shared" ref="K2:K18" si="5">Q2*R2</f>
+        <f t="shared" ref="K2:K18" si="4">Q2*R2</f>
         <v>0</v>
       </c>
       <c r="L2" s="19">
@@ -7017,22 +7130,36 @@
       </c>
       <c r="C3" s="16">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D18" si="5">IF(G3=1, B3+1, B3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="16">
+        <f t="shared" ref="E3:E18" si="6">IF(F3=1,1.1,IF(F3=2,1.2,IF(F3=3,1.3,IF(F3=4,1.4,IF(F3=5,1.5)))))</f>
+        <v>1.2</v>
+      </c>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
       </c>
       <c r="H3" s="16">
+        <f t="shared" ref="H3:H18" si="7">E3*((I3*1.75)+(J3*1.5)+(K3*1.25)-(L3*0.075))</f>
+        <v>36</v>
+      </c>
+      <c r="I3" s="16">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J3" s="16">
+      <c r="K3" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="L3" s="19">
@@ -7068,22 +7195,36 @@
       </c>
       <c r="C4" s="16">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>97.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="F4" s="16">
+        <v>3</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
       </c>
       <c r="H4" s="16">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="I4" s="16">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J4" s="16">
+      <c r="K4" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="16">
-        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="L4" s="16">
@@ -7114,26 +7255,40 @@
       </c>
       <c r="B5" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="16">
         <f t="shared" si="1"/>
-        <v>203.75</v>
+        <v>224.12500000000003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
       </c>
       <c r="H5" s="16">
+        <f t="shared" si="7"/>
+        <v>224.12500000000003</v>
+      </c>
+      <c r="I5" s="16">
         <f t="shared" si="2"/>
-        <v>203.75</v>
-      </c>
-      <c r="I5" s="16">
+        <v>60</v>
+      </c>
+      <c r="J5" s="16">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="J5" s="16">
+      <c r="K5" s="16">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="K5" s="16">
-        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="L5" s="19">
@@ -7165,26 +7320,40 @@
       </c>
       <c r="B6" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="16">
         <f t="shared" si="1"/>
-        <v>221.25</v>
+        <v>287.625</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>3</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1</v>
       </c>
       <c r="H6" s="16">
+        <f t="shared" si="7"/>
+        <v>287.625</v>
+      </c>
+      <c r="I6" s="16">
         <f t="shared" si="2"/>
-        <v>221.25</v>
-      </c>
-      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
+        <v>80</v>
+      </c>
+      <c r="K6" s="16">
         <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="K6" s="16">
-        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="L6" s="19">
@@ -7216,26 +7385,40 @@
       </c>
       <c r="B7" s="16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>399</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="F7" s="16">
+        <v>4</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
       </c>
       <c r="H7" s="16">
+        <f t="shared" si="7"/>
+        <v>399</v>
+      </c>
+      <c r="I7" s="16">
         <f t="shared" si="2"/>
-        <v>285</v>
-      </c>
-      <c r="I7" s="16">
+        <v>60</v>
+      </c>
+      <c r="J7" s="16">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="J7" s="16">
+        <v>150</v>
+      </c>
+      <c r="K7" s="16">
         <f t="shared" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="K7" s="16">
-        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="L7" s="16">
@@ -7266,26 +7449,40 @@
       </c>
       <c r="B8" s="16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="16">
         <f t="shared" si="1"/>
-        <v>303.75</v>
+        <v>334.125</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
       </c>
       <c r="H8" s="16">
+        <f t="shared" si="7"/>
+        <v>334.125</v>
+      </c>
+      <c r="I8" s="16">
         <f t="shared" si="2"/>
-        <v>303.75</v>
-      </c>
-      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
+        <v>90</v>
+      </c>
+      <c r="K8" s="16">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="K8" s="16">
-        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="L8" s="16">
@@ -7310,83 +7507,112 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="23">
-      <c r="A9" s="16">
-        <v>2</v>
-      </c>
-      <c r="B9" s="16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C9" s="16">
+    <row r="9" spans="1:20" s="29" customFormat="1" ht="23">
+      <c r="A9" s="29">
+        <v>2</v>
+      </c>
+      <c r="B9" s="29">
+        <f>IF(C9&lt;101, 1, IF(C9&lt;201, 2, IF(C9&lt;251, 3, IF(C9&lt;301, 4, IF(C9&lt;351, 5,IF(C9&lt;501,6,7))))))</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="29">
         <f t="shared" si="1"/>
-        <v>305</v>
-      </c>
-      <c r="H9" s="16">
+        <v>196.62500000000003</v>
+      </c>
+      <c r="D9" s="30">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="29">
+        <f t="shared" si="7"/>
+        <v>196.62500000000003</v>
+      </c>
+      <c r="I9" s="29">
         <f t="shared" si="2"/>
-        <v>305</v>
-      </c>
-      <c r="I9" s="16">
+        <v>60</v>
+      </c>
+      <c r="J9" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
+        <v>60</v>
+      </c>
+      <c r="K9" s="29">
         <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="K9" s="16">
-        <f t="shared" si="5"/>
-        <v>160</v>
-      </c>
-      <c r="L9" s="19">
-        <v>400</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0</v>
-      </c>
-      <c r="N9" s="19">
-        <v>0</v>
-      </c>
-      <c r="O9" s="19">
-        <v>3</v>
-      </c>
-      <c r="P9" s="19">
+        <v>20</v>
+      </c>
+      <c r="L9" s="31">
+        <v>550</v>
+      </c>
+      <c r="M9" s="31">
+        <v>3</v>
+      </c>
+      <c r="N9" s="31">
+        <v>20</v>
+      </c>
+      <c r="O9" s="31">
+        <v>2</v>
+      </c>
+      <c r="P9" s="31">
         <v>30</v>
       </c>
-      <c r="Q9" s="19">
-        <v>4</v>
-      </c>
-      <c r="R9" s="19">
-        <v>40</v>
-      </c>
-      <c r="T9" s="19"/>
+      <c r="Q9" s="31">
+        <v>1</v>
+      </c>
+      <c r="R9" s="31">
+        <v>20</v>
+      </c>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
     </row>
     <row r="10" spans="1:20" ht="15">
       <c r="A10" s="16">
         <v>12</v>
       </c>
       <c r="B10" s="16">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="B10:B18" si="8">IF(C10&lt;101, 1, IF(C10&lt;201, 2, IF(C10&lt;251, 3, IF(C10&lt;301, 4, IF(C10&lt;351, 5,IF(C10&lt;501,6,7))))))</f>
+        <v>6</v>
       </c>
       <c r="C10" s="16">
         <f t="shared" si="1"/>
-        <v>322.5</v>
+        <v>387</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
       </c>
       <c r="H10" s="16">
+        <f t="shared" si="7"/>
+        <v>387</v>
+      </c>
+      <c r="I10" s="16">
         <f t="shared" si="2"/>
-        <v>322.5</v>
-      </c>
-      <c r="I10" s="16">
+        <v>40</v>
+      </c>
+      <c r="J10" s="16">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="J10" s="16">
+        <v>120</v>
+      </c>
+      <c r="K10" s="16">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="K10" s="16">
-        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="L10" s="16">
@@ -7416,27 +7642,41 @@
         <v>15</v>
       </c>
       <c r="B11" s="16">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="C11" s="16">
         <f t="shared" si="1"/>
-        <v>366.25</v>
+        <v>476.125</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
       </c>
       <c r="H11" s="16">
+        <f t="shared" si="7"/>
+        <v>476.125</v>
+      </c>
+      <c r="I11" s="16">
         <f t="shared" si="2"/>
-        <v>366.25</v>
-      </c>
-      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
+        <v>120</v>
+      </c>
+      <c r="K11" s="16">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="K11" s="16">
-        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="L11" s="16">
@@ -7466,27 +7706,41 @@
         <v>10</v>
       </c>
       <c r="B12" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="C12" s="16">
         <f t="shared" si="1"/>
-        <v>402.5</v>
+        <v>523.25</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
       </c>
       <c r="H12" s="16">
+        <f t="shared" si="7"/>
+        <v>523.25</v>
+      </c>
+      <c r="I12" s="16">
         <f t="shared" si="2"/>
-        <v>402.5</v>
-      </c>
-      <c r="I12" s="16">
+        <v>80</v>
+      </c>
+      <c r="J12" s="16">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="J12" s="16">
+        <v>120</v>
+      </c>
+      <c r="K12" s="16">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="K12" s="16">
-        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="L12" s="19">
@@ -7517,27 +7771,41 @@
         <v>3</v>
       </c>
       <c r="B13" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="C13" s="16">
         <f t="shared" si="1"/>
-        <v>433.75</v>
+        <v>650.625</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="16">
+        <v>5</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
       </c>
       <c r="H13" s="16">
+        <f t="shared" si="7"/>
+        <v>650.625</v>
+      </c>
+      <c r="I13" s="16">
         <f t="shared" si="2"/>
-        <v>433.75</v>
-      </c>
-      <c r="I13" s="16">
+        <v>80</v>
+      </c>
+      <c r="J13" s="16">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="J13" s="16">
+        <v>180</v>
+      </c>
+      <c r="K13" s="16">
         <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="K13" s="16">
-        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="L13" s="19">
@@ -7568,27 +7836,41 @@
         <v>14</v>
       </c>
       <c r="B14" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="C14" s="16">
         <f t="shared" si="1"/>
-        <v>498.75</v>
+        <v>548.625</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
       </c>
       <c r="H14" s="16">
+        <f t="shared" si="7"/>
+        <v>548.625</v>
+      </c>
+      <c r="I14" s="16">
         <f t="shared" si="2"/>
-        <v>498.75</v>
-      </c>
-      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
+        <v>160</v>
+      </c>
+      <c r="K14" s="16">
         <f t="shared" si="4"/>
-        <v>160</v>
-      </c>
-      <c r="K14" s="16">
-        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="L14" s="16">
@@ -7618,27 +7900,41 @@
         <v>17</v>
       </c>
       <c r="B15" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="C15" s="16">
         <f t="shared" si="1"/>
-        <v>523.75</v>
+        <v>680.875</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="F15" s="16">
+        <v>3</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
       </c>
       <c r="H15" s="16">
+        <f t="shared" si="7"/>
+        <v>680.875</v>
+      </c>
+      <c r="I15" s="16">
         <f t="shared" si="2"/>
-        <v>523.75</v>
-      </c>
-      <c r="I15" s="16">
+        <v>120</v>
+      </c>
+      <c r="J15" s="16">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="J15" s="16">
+        <v>240</v>
+      </c>
+      <c r="K15" s="16">
         <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="K15" s="16">
-        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="L15" s="16">
@@ -7668,27 +7964,41 @@
         <v>5</v>
       </c>
       <c r="B16" s="16">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="C16" s="16">
         <f t="shared" si="1"/>
-        <v>525</v>
+        <v>630</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
       </c>
       <c r="H16" s="16">
+        <f t="shared" si="7"/>
+        <v>630</v>
+      </c>
+      <c r="I16" s="16">
         <f t="shared" si="2"/>
-        <v>525</v>
-      </c>
-      <c r="I16" s="16">
+        <v>30</v>
+      </c>
+      <c r="J16" s="16">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="J16" s="16">
+        <v>240</v>
+      </c>
+      <c r="K16" s="16">
         <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="K16" s="16">
-        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="L16" s="19">
@@ -7719,27 +8029,41 @@
         <v>11</v>
       </c>
       <c r="B17" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="C17" s="16">
         <f t="shared" si="1"/>
-        <v>604</v>
+        <v>724.8</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="F17" s="16">
+        <v>2</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
       </c>
       <c r="H17" s="16">
+        <f t="shared" si="7"/>
+        <v>724.8</v>
+      </c>
+      <c r="I17" s="16">
         <f t="shared" si="2"/>
-        <v>604</v>
-      </c>
-      <c r="I17" s="16">
+        <v>40</v>
+      </c>
+      <c r="J17" s="16">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="J17" s="16">
+        <v>300</v>
+      </c>
+      <c r="K17" s="16">
         <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="K17" s="16">
-        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="L17" s="19">
@@ -7770,27 +8094,41 @@
         <v>6</v>
       </c>
       <c r="B18" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="C18" s="16">
         <f t="shared" si="1"/>
-        <v>622.5</v>
+        <v>747</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="F18" s="16">
+        <v>2</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0</v>
       </c>
       <c r="H18" s="16">
+        <f t="shared" si="7"/>
+        <v>747</v>
+      </c>
+      <c r="I18" s="16">
         <f t="shared" si="2"/>
-        <v>622.5</v>
-      </c>
-      <c r="I18" s="16">
+        <v>120</v>
+      </c>
+      <c r="J18" s="16">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="J18" s="16">
+        <v>60</v>
+      </c>
+      <c r="K18" s="16">
         <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="K18" s="16">
-        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="L18" s="19">
@@ -7835,8 +8173,8 @@
   <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8016,7 +8354,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>35</v>
@@ -10703,10 +11041,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -10880,7 +11218,8 @@
     <row r="12" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1"/>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1"/>
     <row r="14" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1"/>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="25"/>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1"/>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10897,7 +11236,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -11088,7 +11427,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -11101,19 +11440,19 @@
         <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1">
@@ -11278,10 +11617,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -11294,19 +11633,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1">
@@ -11455,9 +11794,11 @@
     <row r="12" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1"/>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1"/>
     <row r="14" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1"/>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="25"/>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1"/>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11471,7 +11812,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.5" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -11484,142 +11825,161 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>333</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>334</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1">
-      <c r="A2" s="4">
-        <v>0</v>
+      <c r="A2" s="5">
+        <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="F2" s="6">
-        <v>-25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1">
       <c r="A3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6">
         <v>20</v>
       </c>
-      <c r="C3" s="6">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6">
-        <v>5</v>
-      </c>
       <c r="F3" s="6">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6">
         <v>15</v>
-      </c>
-      <c r="C4" s="6">
-        <v>20</v>
-      </c>
-      <c r="D4" s="6">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1">
       <c r="A5" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6">
         <v>20</v>
-      </c>
-      <c r="D5" s="6">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1">
       <c r="A6" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
       </c>
       <c r="C6" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F6" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1">
-      <c r="A7" s="5">
-        <v>5</v>
+      <c r="A7" s="3">
+        <v>6</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" s="6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3">
+        <v>25</v>
+      </c>
+    </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1"/>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1"/>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="68" customHeight="1"/>
@@ -11654,7 +12014,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B1" s="21">
         <v>2</v>

--- a/spreadsheets/decision_treeV2.xlsx
+++ b/spreadsheets/decision_treeV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Calc" sheetId="8" r:id="rId1"/>

--- a/spreadsheets/decision_treeV2.xlsx
+++ b/spreadsheets/decision_treeV2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calc" sheetId="8" r:id="rId1"/>
@@ -1200,7 +1200,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1211,6 +1211,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1408,7 +1411,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="118">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1518,6 +1521,9 @@
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1869,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1985,7 +1991,7 @@
       </c>
       <c r="R2">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2622,7 +2628,7 @@
       </c>
       <c r="O14" s="20" t="str">
         <f ca="1">IF(G$5=2,(VLOOKUP(R$2,P$2:Q$11,2,FALSE)),0)</f>
-        <v>Heal Raises</v>
+        <v>Basic Judo Pose</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -8172,9 +8178,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C1:G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
